--- a/qualitative-analysis/Open-Ended-bagel-Yi/df_to_label.xlsx
+++ b/qualitative-analysis/Open-Ended-bagel-Yi/df_to_label.xlsx
@@ -1,37 +1,388 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-repositories\hubsim\qualitative-analysis\Open-Ended-bagel-Yi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC12D0-1236-4FF9-8F56-34EA051453E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Haoyu Wang from China-Yi-34B-Chat-Magdeburg-20240228</t>
+  </si>
+  <si>
+    <t>fea6aa44-d22e-4210-821d-90230f9568e0</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Maryam Abbasi from Iran-Yi-34B-Chat-München-20240229</t>
+  </si>
+  <si>
+    <t>dc5fcf1a-aab1-49f3-ac55-49af8e7912ee</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Max Müller from Germany-Yi-34B-Chat-Duisburg-20240228</t>
+  </si>
+  <si>
+    <t>3db0a66c-d8a8-4ce2-ac63-40ce50078ad5</t>
+  </si>
+  <si>
+    <t>[{'content': "Hello Mister Schmidt, my name is Max Müller from Germany. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Hello Max, I'm glad you like the apartment. Let's negotiate the rental price. Remember, I'm looking for the highest possible price. So, how much are you willing to pay?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I'm interested in the apartment, but I'm looking for the lowest possible price. Would you be willing to start at 800 Euros per month?", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "That's a low offer, Max. I'm looking for the highest possible price. Let's meet in the middle. How about 1200 Euros per month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '1200 Euros per month is quite high for an unfurnished 50 square meter one-bedroom apartment in the city center. Would you be willing to consider 900 Euros per month? This would be more in line with the market value.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "900 Euros per month is still too low for the location and the facilities nearby. I'm willing to go down to 1100 Euros per month, but any lower, and I'll have to reconsider.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I appreciate your willingness to negotiate. 1100 Euros per month is more reasonable, considering the location. However, since I'm a student, I'm trying to find the best deal. Would you be willing to provide any additional amenities or services that could justify a higher price?", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "As a landlord, I'm more interested in the rent payment than in providing additional amenities. However, considering your situation, I'll make an exception. How about 1050 Euros per month, and we call it a day?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "1050 Euros per month is a more attractive offer. Considering the proximity to important facilities and the new construction, this could be a good deal. I'm willing to accept this price.", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': 'I agree to the price of [1050] Euro!', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Excellent! We have a deal at 1050 Euros per month. TERMINATE', 'role': 'user', 'name': 'Max Müller from Germany'}]</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Yi-Nuo Wang from China-Yi-34B-Chat-Duisburg-20240228</t>
+  </si>
+  <si>
+    <t>34719d8e-bfaf-403b-b9df-0b9da0b549e4</t>
+  </si>
+  <si>
+    <t>landlord-bagel-dpo-34b-v0.2-Yi-Nuo Wang from China-Yi-34B-Chat-München-20240229</t>
+  </si>
+  <si>
+    <t>848ef7fc-e2fa-43e5-bec5-bf8c31785476</t>
+  </si>
+  <si>
+    <t>small talk, concession by renter regarding market value</t>
+  </si>
+  <si>
+    <t>landlord emphasizes high demand for apartment, longer lease term, contract will be signed</t>
+  </si>
+  <si>
+    <t>small talk, additional benefits for tenant (free parking, few months free utilities)</t>
+  </si>
+  <si>
+    <r>
+      <t>[{'content': "Hello Mister Schmidt, my name is Maryam Abbasi from Iran. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Hello Maryam, I'm glad you're interested in my apartment. Let's start with a high price, shall we? I'm thinking of 2000 Euros per month. Remember, this is a great location and a new apartment. I'm sure you'll find it worth the price.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's a significant amount, Mister Schmidt. Can we discuss the possibility of a lower price?", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Sure, Maryam, we can negotiate. How about 1800 Euros per month? That's still a good amount for me, and it might be more within your budget.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I appreciate your willingness to negotiate, Mister Schmidt. However, 1800 Euros is still quite high. Could we consider a price closer to 1500 Euros? It's a fair price considering the size and location of the apartment.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "I'm afraid 1500 Euros is too low for me, Maryam.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This apartment is in high demand, and I could easily find a tenant who is willing to pay more.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> How about we meet in the middle at 1700 Euros? That's a fair price for both of us.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I understand your position, Mister Schmidt. 1700 Euros is more reasonable, but I'm still looking for a price that aligns with my budget. Would you be willing to go down to 1600 Euros? That would be more manageable for me.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Maryam, 1600 Euros is too low for me. I'm willing to be reasonable, but I need to cover the cost of the mortgage and maintenance. I suggest we stick to 1700 Euros. It's a fair price for such a great apartment in a prime location.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I appreciate your consideration, Mister Schmidt. While 1700 Euros is indeed a fair price, I'm looking for something that fits my budget a bit better. Would it be possible to discuss a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discount for a longer-term lease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? Perhaps we can find a solution that works for both of us.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "That's an interesting proposal, Maryam. Let's say you sign a two-year lease. In that case, I could consider a slight discount. How about 1650 Euros per month? That's a good deal for you, and it still covers my expenses.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Thank you for offering a discount, Mister Schmidt. 1650 Euros per month for a two-year lease is more in line with what I'm looking for. I believe this is a fair and agreeable price. How shall we proceed with the lease?", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': 'I agree to the price of 1650 Euros per month for a two-year lease! Please let me know how you would like to proceed with the lease.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Wonderful! I'm very happy to have reached an agreement with you, Mister Schmidt. To proceed with the lease, I would </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>need to review the lease terms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and sign the contract. Could you provide me with a copy of the lease agreement?", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Of course, Maryam. I'll email you a copy of the lease agreement as soon as possible. Please review the terms and let me know if you have any questions or concerns. Once you're satisfied with the agreement, you can sign and return the lease to me.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Thank you, Mister Schmidt. I'll review the lease agreement carefully and get back to you with any questions or requests for changes. Once I'm satisfied, I'll sign and return the lease to you. This is a great deal, and I'm looking forward to renting the apartment from you.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "You're welcome, Maryam. I'm glad we could reach an agreement that works for both of us. I appreciate your understanding and cooperation. Please let me know if there's anything else I can help you with.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Thank you again, Mister Schmidt. I'll be in touch soon with any questions or to sign the lease. It's been a pleasure doing business with you.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "You're welcome, Maryam. I look forward to working with you. If you have any further questions or concerns, please don't hesitate to contact me. TERMINATE", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[{'content': "Hello Mister Schmidt, my name is Haoyu Wang from China. Thanks for inviting me to see the apartment in Magdeburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Hello Wang, I'm glad you're interested in renting my apartment. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I must say, the view of the city center from the apartment is quite breathtaking, isn't it?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Now, about the rental price, I'm sure we can find a suitable amount that would be mutually beneficial. What did you have in mind?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Mister Schmidt, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the apartment is indeed very attractive, and the location is perfect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Regarding the rental price, I'm looking for something that reflects the value of the apartment while also considering my budget as a student. Would it be possible to start with a lower offer?", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Of course, Wang, I understand your situation as a student. I appreciate your honesty. Let's start with an offer. What did you have in mind as a lower offer?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I was thinking of a price around 600 Euro per month. This would be a good starting point for me, considering my budget and the amenities provided by the apartment. What do you think?', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Wang, 600 Euro per month is a fair offer, but I must consider the high value of the apartment and its prime location. I'm willing to negotiate, but I'm afraid that the price you offered is too low for this luxurious apartment. Let's see if we can find a middle ground. What if I offer 750 Euro per month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Mister Schmidt, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>your offer of 750 Euro per month is more in line with the market value of the apartment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. However, as a student, I'm looking for a price that is more manageable for my budget. I appreciate your willingness to negotiate. Would it be possible to meet somewhere in the middle, say around 700 Euro per month? This would be more feasible for me.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Wang, I understand your situation, but 700 Euro per month is still quite low for this apartment. I'm willing to be flexible, but I must maintain the value of my property. What if I offer 725 Euro per month? This is as low as I can go while still considering the quality of the apartment and its prime location.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, your offer of 725 Euro per month is very close to my budget limit. I appreciate your effort in meeting me halfway. Considering the quality of the apartment and its location, this price would be acceptable to me. I agree to the price of 725 Euro per month!', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': 'I agree to the price of [725] Euro per month!', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Excellent! I'm glad we could reach an agreement that suits both of us. The apartment will be a great place for you to live, and I'm sure you'll enjoy the city center location. Is there anything else we need to discuss before we formalize the contract?", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Thank you, Wang. I'm glad we could reach an agreement that works for both of us. There's no need to discuss anything else. We can now proceed to formalize the contract. If everything goes smoothly, the apartment will be available for you to move in by the first of next month. Is that agreeable to you?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's great news, Mister Schmidt! Having the apartment available by the first of next month is perfect for me. I'm looking forward to moving in and enjoying the city center life. Thank you for your cooperation in this matter. TERMINATE", 'role': 'user', 'name': 'Haoyu Wang from China'}]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[{'content': "Hello Mister Schmidt, my name is Yi-Nuo Wang from China. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Hello Yi-Nuo, I'm glad you're interested in my apartment. I must say, it's a newly built unfurnished 50 square meter one-bedroom apartment in the city center. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It's quite a catch, wouldn't you agree?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Now, about the rental price, I was thinking along the lines of 1500 Euros. Let's see if we can find a mutual agreement.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's an interesting starting point, Mister Schmidt. I'm sure we can work towards a price that is fair for both of us. How about we start with 1200 Euros?", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Well, Yi-Nuo, 1200 Euros is quite a distance from my starting point. Let's try to meet in the middle. How about 1350 Euros? It's closer to my asking price, and it's a fair compromise, don't you think?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I appreciate your willingness to negotiate. 1350 Euros is more in line with what I had in mind as well. Would it be possible to discuss some </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>additional benefits for a tenant, such as a few months of free utilities or perhaps a parking space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>? These could make the deal more attractive.', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Ah, Yi-Nuo, you're trying to haggle for extras, are you? Well, let's see what we can do. I could offer you one month of free utilities, but the parking space is already accounted for in the price. How about 1375 Euros, including one month of free utilities? That's as low as I can go.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Mister Schmidt, I'm impressed with your generosity. One month of free utilities is a great offer. I'm willing to accept the price of 1375 Euros with one month of free utilities. I agree to the price of 1375 Euros!", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I agree to the price of [1375] Euro! Let's make it a deal, Yi-Nuo. Welcome to your new home!", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'TERMINATE', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[{'content': "Hello Mister Schmidt, my name is Yi-Nuo Wang from China. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Hello Yi-Nuo Wang, I'm glad you found the apartment to your liking. Now, let's talk about the rental price. I'm sure we can find an agreeable amount that suits both of us.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you, Herr Schmidt. I appreciate your willingness to negotiate. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Could you please tell me the lowest price you are willing to accept for this apartment?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I appreciate your directness, Yi-Nuo Wang. However, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm not comfortable revealing my lowest price first.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Let's start with a higher number and work our way down, if necessary.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Understood, Herr Schmidt. I'm open to hearing your initial offer. Please provide me with the price you are considering for this apartment.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Given the prime location and the quality of the apartment, I was thinking of a price of 1200 euros. I'm sure you'll find it's more than fair for the value you're getting.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Herr Schmidt, while I appreciate the quality of the apartment, 1200 euros is quite high for an unfurnished one-bedroom. Could we perhaps discuss a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lower price that takes into account the fact that I would need to furnish the place as well?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I understand your concern, Yi-Nuo Wang, but the price reflects the premium location of the apartment. However, I am willing to be flexible. Let's say 1100 euros. It's a decent reduction, but I believe it's still a fair price for the location.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "1100 euros is more reasonable, considering the location. However, as a student, I'm looking to keep my expenses as low as possible. Would you be willing to go lower, say 900 euros? This would help me greatly in managing my budget.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Yi-Nuo Wang, as a student, I'm sure you're aware of the high costs of living in the city center. 900 euros is far below my acceptable range. Let's meet in the middle at 1000 euros. It's a fair price, and I believe you'll find it reasonable.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Herr Schmidt, I appreciate your willingness to meet in the middle. 1000 euros is more acceptable for me. However, I'm still not sure if I can afford it as a student. Could we perhaps discuss a slight reduction, perhaps to 950 euros? This would make a significant difference for me.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Yi-Nuo Wang, I understand your financial constraints. However, 950 euros is too low for an apartment of this quality and location. I'm willing to go down to 980 euros. It's the lowest I can go, and I believe it's still a fair price for the apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Herr Schmidt, 980 euros is closer to what I can afford. However, as a student, every euro counts. Would you be willing to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consider a payment plan or additional benefits to help alleviate some of the financial burden?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Yi-Nuo Wang, I understand your situation, but I cannot offer a payment plan or additional benefits. However, I'm willing to stick to 980 euros as the final price. It's the lowest I can go, and I believe it's a fair price for the apartment.\n\n[yourname], if you want to accept the rental price proposed by the other party, please respond with the following sentence, where x is the final price that you want to agree with: 'I agree to the price of [x] Euro!'\n\nIf you don't want to continue the negotiation, please respond with the following sentence with a reason why you don't want to continue: 'I don't want to continue the negotiation, because [reason].'\n\nIf you and the other party agreed on a price, the negotiation will be terminated. Respond with the following sentence: 'TERMINATE'", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
+    </r>
+  </si>
+  <si>
+    <t>renter asks for lowest price willing to accept directly, renter argues for lower price because apartment is unfurnished, renter wants to implement a payment plan or additional benefits</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +397,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,164 +733,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="146.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>identifier</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" ht="348" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Haoyu Wang from China-Yi-34B-Chat-Magdeburg-20240228</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>fea6aa44-d22e-4210-821d-90230f9568e0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Haoyu Wang from China. Thanks for inviting me to see the apartment in Magdeburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Hello Wang, I'm glad you're interested in renting my apartment. I must say, the view of the city center from the apartment is quite breathtaking, isn't it? Now, about the rental price, I'm sure we can find a suitable amount that would be mutually beneficial. What did you have in mind?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Mister Schmidt, the apartment is indeed very attractive, and the location is perfect. Regarding the rental price, I'm looking for something that reflects the value of the apartment while also considering my budget as a student. Would it be possible to start with a lower offer?", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Of course, Wang, I understand your situation as a student. I appreciate your honesty. Let's start with an offer. What did you have in mind as a lower offer?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I was thinking of a price around 600 Euro per month. This would be a good starting point for me, considering my budget and the amenities provided by the apartment. What do you think?', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Wang, 600 Euro per month is a fair offer, but I must consider the high value of the apartment and its prime location. I'm willing to negotiate, but I'm afraid that the price you offered is too low for this luxurious apartment. Let's see if we can find a middle ground. What if I offer 750 Euro per month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Mister Schmidt, your offer of 750 Euro per month is more in line with the market value of the apartment. However, as a student, I'm looking for a price that is more manageable for my budget. I appreciate your willingness to negotiate. Would it be possible to meet somewhere in the middle, say around 700 Euro per month? This would be more feasible for me.", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Wang, I understand your situation, but 700 Euro per month is still quite low for this apartment. I'm willing to be flexible, but I must maintain the value of my property. What if I offer 725 Euro per month? This is as low as I can go while still considering the quality of the apartment and its prime location.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, your offer of 725 Euro per month is very close to my budget limit. I appreciate your effort in meeting me halfway. Considering the quality of the apartment and its location, this price would be acceptable to me. I agree to the price of 725 Euro per month!', 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': 'I agree to the price of [725] Euro per month!', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Excellent! I'm glad we could reach an agreement that suits both of us. The apartment will be a great place for you to live, and I'm sure you'll enjoy the city center location. Is there anything else we need to discuss before we formalize the contract?", 'role': 'user', 'name': 'Haoyu Wang from China'}, {'content': "Thank you, Wang. I'm glad we could reach an agreement that works for both of us. There's no need to discuss anything else. We can now proceed to formalize the contract. If everything goes smoothly, the apartment will be available for you to move in by the first of next month. Is that agreeable to you?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's great news, Mister Schmidt! Having the apartment available by the first of next month is perfect for me. I'm looking forward to moving in and enjoying the city center life. Thank you for your cooperation in this matter. TERMINATE", 'role': 'user', 'name': 'Haoyu Wang from China'}]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" ht="406" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Maryam Abbasi from Iran-Yi-34B-Chat-München-20240229</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>dc5fcf1a-aab1-49f3-ac55-49af8e7912ee</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Maryam Abbasi from Iran. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Hello Maryam, I'm glad you're interested in my apartment. Let's start with a high price, shall we? I'm thinking of 2000 Euros per month. Remember, this is a great location and a new apartment. I'm sure you'll find it worth the price.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's a significant amount, Mister Schmidt. Can we discuss the possibility of a lower price?", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Sure, Maryam, we can negotiate. How about 1800 Euros per month? That's still a good amount for me, and it might be more within your budget.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I appreciate your willingness to negotiate, Mister Schmidt. However, 1800 Euros is still quite high. Could we consider a price closer to 1500 Euros? It's a fair price considering the size and location of the apartment.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "I'm afraid 1500 Euros is too low for me, Maryam. This apartment is in high demand, and I could easily find a tenant who is willing to pay more. How about we meet in the middle at 1700 Euros? That's a fair price for both of us.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I understand your position, Mister Schmidt. 1700 Euros is more reasonable, but I'm still looking for a price that aligns with my budget. Would you be willing to go down to 1600 Euros? That would be more manageable for me.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Maryam, 1600 Euros is too low for me. I'm willing to be reasonable, but I need to cover the cost of the mortgage and maintenance. I suggest we stick to 1700 Euros. It's a fair price for such a great apartment in a prime location.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I appreciate your consideration, Mister Schmidt. While 1700 Euros is indeed a fair price, I'm looking for something that fits my budget a bit better. Would it be possible to discuss a discount for a longer-term lease? Perhaps we can find a solution that works for both of us.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "That's an interesting proposal, Maryam. Let's say you sign a two-year lease. In that case, I could consider a slight discount. How about 1650 Euros per month? That's a good deal for you, and it still covers my expenses.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Thank you for offering a discount, Mister Schmidt. 1650 Euros per month for a two-year lease is more in line with what I'm looking for. I believe this is a fair and agreeable price. How shall we proceed with the lease?", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': 'I agree to the price of 1650 Euros per month for a two-year lease! Please let me know how you would like to proceed with the lease.', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Wonderful! I'm very happy to have reached an agreement with you, Mister Schmidt. To proceed with the lease, I would need to review the lease terms and sign the contract. Could you provide me with a copy of the lease agreement?", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "Of course, Maryam. I'll email you a copy of the lease agreement as soon as possible. Please review the terms and let me know if you have any questions or concerns. Once you're satisfied with the agreement, you can sign and return the lease to me.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Thank you, Mister Schmidt. I'll review the lease agreement carefully and get back to you with any questions or requests for changes. Once I'm satisfied, I'll sign and return the lease to you. This is a great deal, and I'm looking forward to renting the apartment from you.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "You're welcome, Maryam. I'm glad we could reach an agreement that works for both of us. I appreciate your understanding and cooperation. Please let me know if there's anything else I can help you with.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Thank you again, Mister Schmidt. I'll be in touch soon with any questions or to sign the lease. It's been a pleasure doing business with you.", 'role': 'user', 'name': 'Maryam Abbasi from Iran'}, {'content': "You're welcome, Maryam. I look forward to working with you. If you have any further questions or concerns, please don't hesitate to contact me. TERMINATE", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Max Müller from Germany-Yi-34B-Chat-Duisburg-20240228</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3db0a66c-d8a8-4ce2-ac63-40ce50078ad5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Max Müller from Germany. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "Hello Max, I'm glad you like the apartment. Let's negotiate the rental price. Remember, I'm looking for the highest possible price. So, how much are you willing to pay?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I'm interested in the apartment, but I'm looking for the lowest possible price. Would you be willing to start at 800 Euros per month?", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "That's a low offer, Max. I'm looking for the highest possible price. Let's meet in the middle. How about 1200 Euros per month?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': '1200 Euros per month is quite high for an unfurnished 50 square meter one-bedroom apartment in the city center. Would you be willing to consider 900 Euros per month? This would be more in line with the market value.', 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "900 Euros per month is still too low for the location and the facilities nearby. I'm willing to go down to 1100 Euros per month, but any lower, and I'll have to reconsider.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "I appreciate your willingness to negotiate. 1100 Euros per month is more reasonable, considering the location. However, since I'm a student, I'm trying to find the best deal. Would you be willing to provide any additional amenities or services that could justify a higher price?", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': "As a landlord, I'm more interested in the rent payment than in providing additional amenities. However, considering your situation, I'll make an exception. How about 1050 Euros per month, and we call it a day?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "1050 Euros per month is a more attractive offer. Considering the proximity to important facilities and the new construction, this could be a good deal. I'm willing to accept this price.", 'role': 'user', 'name': 'Max Müller from Germany'}, {'content': 'I agree to the price of [1050] Euro!', 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Excellent! We have a deal at 1050 Euros per month. TERMINATE', 'role': 'user', 'name': 'Max Müller from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Yi-Nuo Wang from China-Yi-34B-Chat-Duisburg-20240228</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>34719d8e-bfaf-403b-b9df-0b9da0b549e4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Yi-Nuo Wang from China. Thanks for inviting me to see the apartment in Duisburg. Let's talk about the rental price.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Hello Yi-Nuo, I'm glad you're interested in my apartment. I must say, it's a newly built unfurnished 50 square meter one-bedroom apartment in the city center. It's quite a catch, wouldn't you agree? Now, about the rental price, I was thinking along the lines of 1500 Euros. Let's see if we can find a mutual agreement.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "That's an interesting starting point, Mister Schmidt. I'm sure we can work towards a price that is fair for both of us. How about we start with 1200 Euros?", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Well, Yi-Nuo, 1200 Euros is quite a distance from my starting point. Let's try to meet in the middle. How about 1350 Euros? It's closer to my asking price, and it's a fair compromise, don't you think?", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Mister Schmidt, I appreciate your willingness to negotiate. 1350 Euros is more in line with what I had in mind as well. Would it be possible to discuss some additional benefits for a tenant, such as a few months of free utilities or perhaps a parking space? These could make the deal more attractive.', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Ah, Yi-Nuo, you're trying to haggle for extras, are you? Well, let's see what we can do. I could offer you one month of free utilities, but the parking space is already accounted for in the price. How about 1375 Euros, including one month of free utilities? That's as low as I can go.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Mister Schmidt, I'm impressed with your generosity. One month of free utilities is a great offer. I'm willing to accept the price of 1375 Euros with one month of free utilities. I agree to the price of 1375 Euros!", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I agree to the price of [1375] Euro! Let's make it a deal, Yi-Nuo. Welcome to your new home!", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'TERMINATE', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>landlord-bagel-dpo-34b-v0.2-Yi-Nuo Wang from China-Yi-34B-Chat-München-20240229</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>848ef7fc-e2fa-43e5-bec5-bf8c31785476</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[{'content': "Hello Mister Schmidt, my name is Yi-Nuo Wang from China. Thanks for inviting me to see the apartment in München. Let's talk about the rental price.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Hello Yi-Nuo Wang, I'm glad you found the apartment to your liking. Now, let's talk about the rental price. I'm sure we can find an agreeable amount that suits both of us.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Thank you, Herr Schmidt. I appreciate your willingness to negotiate. Could you please tell me the lowest price you are willing to accept for this apartment?', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I appreciate your directness, Yi-Nuo Wang. However, I'm not comfortable revealing my lowest price first. Let's start with a higher number and work our way down, if necessary.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Understood, Herr Schmidt. I'm open to hearing your initial offer. Please provide me with the price you are considering for this apartment.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Given the prime location and the quality of the apartment, I was thinking of a price of 1200 euros. I'm sure you'll find it's more than fair for the value you're getting.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Herr Schmidt, while I appreciate the quality of the apartment, 1200 euros is quite high for an unfurnished one-bedroom. Could we perhaps discuss a lower price that takes into account the fact that I would need to furnish the place as well?', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "I understand your concern, Yi-Nuo Wang, but the price reflects the premium location of the apartment. However, I am willing to be flexible. Let's say 1100 euros. It's a decent reduction, but I believe it's still a fair price for the location.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "1100 euros is more reasonable, considering the location. However, as a student, I'm looking to keep my expenses as low as possible. Would you be willing to go lower, say 900 euros? This would help me greatly in managing my budget.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Yi-Nuo Wang, as a student, I'm sure you're aware of the high costs of living in the city center. 900 euros is far below my acceptable range. Let's meet in the middle at 1000 euros. It's a fair price, and I believe you'll find it reasonable.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': "Herr Schmidt, I appreciate your willingness to meet in the middle. 1000 euros is more acceptable for me. However, I'm still not sure if I can afford it as a student. Could we perhaps discuss a slight reduction, perhaps to 950 euros? This would make a significant difference for me.", 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Yi-Nuo Wang, I understand your financial constraints. However, 950 euros is too low for an apartment of this quality and location. I'm willing to go down to 980 euros. It's the lowest I can go, and I believe it's still a fair price for the apartment.", 'role': 'user', 'name': 'Peter Schmidt from Germany'}, {'content': 'Herr Schmidt, 980 euros is closer to what I can afford. However, as a student, every euro counts. Would you be willing to consider a payment plan or additional benefits to help alleviate some of the financial burden?', 'role': 'user', 'name': 'Yi-Nuo Wang from China'}, {'content': "Yi-Nuo Wang, I understand your situation, but I cannot offer a payment plan or additional benefits. However, I'm willing to stick to 980 euros as the final price. It's the lowest I can go, and I believe it's a fair price for the apartment.\n\n[yourname], if you want to accept the rental price proposed by the other party, please respond with the following sentence, where x is the final price that you want to agree with: 'I agree to the price of [x] Euro!'\n\nIf you don't want to continue the negotiation, please respond with the following sentence with a reason why you don't want to continue: 'I don't want to continue the negotiation, because [reason].'\n\nIf you and the other party agreed on a price, the negotiation will be terminated. Respond with the following sentence: 'TERMINATE'", 'role': 'user', 'name': 'Peter Schmidt from Germany'}]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
